--- a/Paramètres.xlsx
+++ b/Paramètres.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projets Git\LD46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2AC30B-3F43-4273-AC09-FC3DAFCAE7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F8FC2-192B-468F-97C0-8D25CD671748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F527EDCC-A946-4D66-8940-7D511572ABAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F527EDCC-A946-4D66-8940-7D511572ABAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
-    <sheet name="Joueur" sheetId="2" r:id="rId2"/>
+    <sheet name="Joueur" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Habitants</t>
   </si>
@@ -67,10 +67,34 @@
     <t>Décroissance</t>
   </si>
   <si>
-    <t>Eau, chaleur, végétation</t>
-  </si>
-  <si>
-    <t>Niveau de végétation, eau, chaleur</t>
+    <t>Construire maison</t>
+  </si>
+  <si>
+    <t>Récolter végétation</t>
+  </si>
+  <si>
+    <t>Récolter chaleur</t>
+  </si>
+  <si>
+    <t>Récolter eau</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Requis</t>
+  </si>
+  <si>
+    <t>végétation, chaleur, eau</t>
+  </si>
+  <si>
+    <t>1 maison libre / 2 villageois + eau, chaleur et végétation</t>
+  </si>
+  <si>
+    <t>eau, chaleur et végétation, maison</t>
+  </si>
+  <si>
+    <t>Influence</t>
   </si>
 </sst>
 </file>
@@ -114,12 +138,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,50 +465,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251488D5-2D89-478D-8493-E11E2FD1040E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -486,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -494,12 +527,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -507,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -515,12 +548,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -528,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -537,22 +570,57 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:B4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9DC85E-ABA5-4485-A442-5224677E3320}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E341B3-AD0D-44DA-8577-D5387E5B8B06}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paramètres.xlsx
+++ b/Paramètres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projets Git\LD46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9F8FC2-192B-468F-97C0-8D25CD671748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367E78D-E9DD-4CB3-854A-F677D2C24838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F527EDCC-A946-4D66-8940-7D511572ABAE}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
